--- a/commodities_atualizado.xlsx
+++ b/commodities_atualizado.xlsx
@@ -465,12 +465,10 @@
         <v>85.31999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>57.67</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
+        <v>56.36</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -483,12 +481,10 @@
         <v>163.59</v>
       </c>
       <c r="C3" t="n">
-        <v>133.59</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
+        <v>132.54</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -501,12 +497,10 @@
         <v>282.2</v>
       </c>
       <c r="C4" t="n">
-        <v>258</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
+        <v>252.2</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -519,12 +513,10 @@
         <v>424.37</v>
       </c>
       <c r="C5" t="n">
-        <v>358.59</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
+        <v>358.37</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -537,12 +529,10 @@
         <v>497.76</v>
       </c>
       <c r="C6" t="n">
-        <v>373.52</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
+        <v>371.57</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -555,12 +545,10 @@
         <v>136.23</v>
       </c>
       <c r="C7" t="n">
-        <v>141.59</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
+        <v>139.06</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -573,12 +561,10 @@
         <v>1092.87</v>
       </c>
       <c r="C8" t="n">
-        <v>856.84</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
+        <v>840.85</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -591,12 +577,10 @@
         <v>321.77</v>
       </c>
       <c r="C9" t="n">
-        <v>299.17</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
+        <v>299.1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +595,8 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
+      <c r="D10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -629,10 +611,8 @@
       <c r="C11" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
+      <c r="D11" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
